--- a/biology/Médecine/Charles_Richet_(fils)/Charles_Richet_(fils).xlsx
+++ b/biology/Médecine/Charles_Richet_(fils)/Charles_Richet_(fils).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Richet, né à Paris (6e) le 11 décembre 1882[2] et mort dans la même ville (7e) le 17 juillet 1966[3], est un médecin français, professeur à la Faculté de médecine de Paris, spécialiste en nutrition. Il est colonel honoraire du Service de santé des armées (déporté-résistant).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Richet, né à Paris (6e) le 11 décembre 1882 et mort dans la même ville (7e) le 17 juillet 1966, est un médecin français, professeur à la Faculté de médecine de Paris, spécialiste en nutrition. Il est colonel honoraire du Service de santé des armées (déporté-résistant).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Richet est le petit-fils d'Alfred Richet, le fils de Charles Richet et le père de Gabriel Richet.
-Résistant, il est déporté au camp de Buchenwald en janvier 1944[4]. Quelques années après son retour des camps, il publie un ouvrage fouillé sur les pathologies spécifiques dont souffrent les rescapés[5].
+Résistant, il est déporté au camp de Buchenwald en janvier 1944. Quelques années après son retour des camps, il publie un ouvrage fouillé sur les pathologies spécifiques dont souffrent les rescapés.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Grand-croix de la Légion d'honneur en 1959[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand-croix de la Légion d'honneur en 1959.
  Croix de commandeur de l'ordre du Mérite (Allemagne)</t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Etude clinique et expérimentale des entérites. Les entérites par élimination microbienne ou toxique, (Paris), 1912, In-8°.
 Les Hormones homo-organiques, [Extrait de "la Presse médicale", n° 31, du 17 avril 1926], Masson (Paris), 1926, In-8° , 12 p.
